--- a/기획서/Hand_Parts_Item Table.xlsx
+++ b/기획서/Hand_Parts_Item Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D55C0F-8529-4070-AFDE-EBF4FE277263}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA01278-4A2C-43C0-AC6C-21D0647DF219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18630" yWindow="3030" windowWidth="21195" windowHeight="11325" xr2:uid="{AC1B7DF3-9B2E-40D9-A497-425F2F42264A}"/>
+    <workbookView xWindow="3480" yWindow="2145" windowWidth="20190" windowHeight="11325" xr2:uid="{AC1B7DF3-9B2E-40D9-A497-425F2F42264A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="00000"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +79,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,20 +137,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -169,6 +149,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +470,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,226 +495,226 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>101</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>102</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>103</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>200</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
         <v>10</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>201</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>202</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>203</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>300</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
         <v>15</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>301</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
         <v>21</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>302</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>303</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6">
         <v>12</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>400</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
         <v>28</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>401</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
         <v>20</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>402</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
         <v>16</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>403</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/기획서/Hand_Parts_Item Table.xlsx
+++ b/기획서/Hand_Parts_Item Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA01278-4A2C-43C0-AC6C-21D0647DF219}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7562F085-87A5-46B3-96A2-D612E544C3BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2145" windowWidth="20190" windowHeight="11325" xr2:uid="{AC1B7DF3-9B2E-40D9-A497-425F2F42264A}"/>
+    <workbookView xWindow="3390" yWindow="2100" windowWidth="18810" windowHeight="12720" xr2:uid="{AC1B7DF3-9B2E-40D9-A497-425F2F42264A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item_offensePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Item_range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +46,10 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +470,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,10 +488,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -499,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>7</v>
@@ -527,13 +527,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -541,13 +541,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -555,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -569,7 +569,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
         <v>14</v>
@@ -583,13 +583,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -597,13 +597,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <v>15</v>
@@ -625,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
         <v>21</v>
@@ -639,13 +639,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -653,13 +653,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -667,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="3">
         <v>28</v>
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
         <v>20</v>
@@ -695,13 +695,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
         <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -709,17 +709,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>